--- a/Data/aearep-1702/candidatepackages.xlsx
+++ b/Data/aearep-1702/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,45 +25,39 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
-    <t>ftools</t>
+    <t>coefplot</t>
   </si>
   <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>statplot</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>strip</t>
   </si>
   <si>
-    <t>statplot</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -73,45 +67,36 @@
     <t>running</t>
   </si>
   <si>
+    <t>python</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
-    <t>python</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
     <t>twfe</t>
   </si>
   <si>
-    <t>lars</t>
+    <t>pre</t>
   </si>
   <si>
     <t>nearest</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>gets</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -133,30 +118,15 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1702</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1702/128701/replication</t>
   </si>
   <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1702/128701/replication/code</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1702/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>run_CA_replication.do</t>
   </si>
   <si>
@@ -218,9 +188,6 @@
   </si>
   <si>
     <t>plot_cayear_maps_r.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -264,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -272,13 +239,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -286,7 +253,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -310,7 +277,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -322,7 +289,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -334,7 +301,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -346,7 +313,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -358,7 +325,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -370,7 +337,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -382,10 +349,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D10"/>
     </row>
@@ -394,10 +361,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>279</v>
+        <v>562</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.18578512966632843</v>
       </c>
       <c r="D11"/>
     </row>
@@ -406,10 +373,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>378</v>
+        <v>563</v>
       </c>
       <c r="C12">
-        <v>0.1253315657377243</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D12"/>
     </row>
@@ -418,10 +385,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>538</v>
+        <v>575</v>
       </c>
       <c r="C13">
-        <v>0.17838196456432343</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D13"/>
     </row>
@@ -430,10 +397,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C14">
-        <v>0.18700265884399414</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D14"/>
     </row>
@@ -442,10 +409,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C15">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D15"/>
     </row>
@@ -454,10 +421,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C16">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D16"/>
     </row>
@@ -466,10 +433,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>884</v>
       </c>
       <c r="C17">
-        <v>0.20092837512493134</v>
+        <v>0.29223141074180603</v>
       </c>
       <c r="D17"/>
     </row>
@@ -478,10 +445,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="C18">
-        <v>0.24701590836048126</v>
+        <v>0.29256197810173035</v>
       </c>
       <c r="D18"/>
     </row>
@@ -490,10 +457,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>797</v>
+        <v>978</v>
       </c>
       <c r="C19">
-        <v>0.2642572820186615</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D19"/>
     </row>
@@ -502,10 +469,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>879</v>
+        <v>998</v>
       </c>
       <c r="C20">
-        <v>0.29144561290740967</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D20"/>
     </row>
@@ -514,10 +481,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>910</v>
+        <v>1178</v>
       </c>
       <c r="C21">
-        <v>0.3017241358757019</v>
+        <v>0.3894214928150177</v>
       </c>
       <c r="D21"/>
     </row>
@@ -526,10 +493,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>985</v>
+        <v>1428</v>
       </c>
       <c r="C22">
-        <v>0.32659152150154114</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D22"/>
     </row>
@@ -538,10 +505,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1062</v>
+        <v>1469</v>
       </c>
       <c r="C23">
-        <v>0.35212200880050659</v>
+        <v>0.48561984300613403</v>
       </c>
       <c r="D23"/>
     </row>
@@ -550,10 +517,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1124</v>
+        <v>1564</v>
       </c>
       <c r="C24">
-        <v>0.37267905473709106</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D24"/>
     </row>
@@ -562,10 +529,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1444</v>
+        <v>1658</v>
       </c>
       <c r="C25">
-        <v>0.47877985239028931</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D25"/>
     </row>
@@ -574,10 +541,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1553</v>
+        <v>1865</v>
       </c>
       <c r="C26">
-        <v>0.51492041349411011</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D26"/>
     </row>
@@ -586,10 +553,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1565</v>
+        <v>2030</v>
       </c>
       <c r="C27">
-        <v>0.51889920234680176</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D27"/>
     </row>
@@ -598,10 +565,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1798</v>
+        <v>2074</v>
       </c>
       <c r="C28">
-        <v>0.5961538553237915</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D28"/>
     </row>
@@ -610,10 +577,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1817</v>
+        <v>2218</v>
       </c>
       <c r="C29">
-        <v>0.60245358943939209</v>
+        <v>0.73322314023971558</v>
       </c>
       <c r="D29"/>
     </row>
@@ -622,72 +589,12 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1835</v>
+        <v>2614</v>
       </c>
       <c r="C30">
-        <v>0.60842174291610718</v>
+        <v>0.86413222551345825</v>
       </c>
       <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1859</v>
-      </c>
-      <c r="C31">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1965</v>
-      </c>
-      <c r="C32">
-        <v>0.65152519941329956</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>2239</v>
-      </c>
-      <c r="C33">
-        <v>0.7423740029335022</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2430</v>
-      </c>
-      <c r="C34">
-        <v>0.80570292472839355</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2724</v>
-      </c>
-      <c r="C35">
-        <v>0.90318304300308228</v>
-      </c>
-      <c r="D35"/>
     </row>
   </sheetData>
 </worksheet>
@@ -695,215 +602,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B22"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
